--- a/cases/2021sxzxyy/维度导向库.xlsx
+++ b/cases/2021sxzxyy/维度导向库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="126">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">私域演算</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
+    <t xml:space="preserve">DRGs组数</t>
   </si>
   <si>
     <t xml:space="preserve">非标</t>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">住院下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院中医医疗服务项目收入占住院医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">财务年报表、医院填报</t>
   </si>
   <si>
     <t xml:space="preserve">住院患者基本药物使用率</t>
@@ -479,8 +473,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,11 +501,11 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -606,7 +604,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -868,10 +866,10 @@
         <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>33</v>
@@ -880,13 +878,13 @@
         <v>23</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>15</v>
@@ -900,22 +898,22 @@
         <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>15</v>
@@ -926,7 +924,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>28</v>
@@ -952,42 +950,42 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>25</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>33</v>
@@ -996,7 +994,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>15</v>
@@ -1005,12 +1003,12 @@
         <v>25</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>32</v>
@@ -1034,12 +1032,12 @@
         <v>25</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>32</v>
@@ -1068,25 +1066,25 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="F20" s="0" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>25</v>
@@ -1097,28 +1095,28 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>25</v>
@@ -1128,43 +1126,46 @@
       <c r="A22" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>0.382</v>
+      </c>
       <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>13</v>
@@ -1187,39 +1188,36 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0.618</v>
+        <v>63</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>27</v>
@@ -1228,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>23</v>
@@ -1248,22 +1246,22 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D26" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>25</v>
@@ -1272,15 +1270,15 @@
         <v>25</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>39</v>
@@ -1289,16 +1287,16 @@
         <v>33</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>15</v>
@@ -1309,7 +1307,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>39</v>
@@ -1318,7 +1316,7 @@
         <v>33</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>35</v>
@@ -1335,28 +1333,25 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>15</v>
@@ -1367,33 +1362,36 @@
         <v>73</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>12</v>
@@ -1405,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>36</v>
@@ -1414,7 +1412,7 @@
         <v>36</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,25 +1420,22 @@
         <v>76</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>15</v>
@@ -1448,19 +1443,22 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="D33" s="0" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>15</v>
@@ -1469,33 +1467,33 @@
         <v>15</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>25</v>
@@ -1503,10 +1501,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>12</v>
@@ -1515,10 +1513,10 @@
         <v>22</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>25</v>
@@ -1535,36 +1533,36 @@
         <v>83</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>39</v>
@@ -1573,16 +1571,16 @@
         <v>33</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>15</v>
@@ -1590,28 +1588,28 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>15</v>
@@ -1619,10 +1617,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>12</v>
@@ -1631,19 +1629,19 @@
         <v>33</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,22 +1649,22 @@
         <v>90</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>33</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>25</v>
@@ -1677,77 +1675,77 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>25</v>
@@ -1756,33 +1754,30 @@
         <v>25</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>15</v>
@@ -1790,94 +1785,97 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>33</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>12</v>
@@ -1886,7 +1884,7 @@
         <v>33</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>35</v>
@@ -1903,10 +1901,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>12</v>
@@ -1932,19 +1930,19 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>35</v>
@@ -1964,25 +1962,25 @@
         <v>102</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>15</v>
@@ -1990,10 +1988,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>28</v>
@@ -2019,28 +2017,25 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>15</v>
@@ -2048,57 +2043,60 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="C55" s="0" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>39</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,7 +2104,7 @@
         <v>108</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>39</v>
@@ -2115,7 +2113,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>14</v>
@@ -2132,10 +2130,10 @@
     </row>
     <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>39</v>
@@ -2144,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>14</v>
@@ -2164,7 +2162,7 @@
         <v>111</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>39</v>
@@ -2193,7 +2191,7 @@
         <v>113</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>39</v>
@@ -2202,7 +2200,7 @@
         <v>13</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>14</v>
@@ -2219,10 +2217,10 @@
     </row>
     <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>39</v>
@@ -2231,7 +2229,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>14</v>
@@ -2251,7 +2249,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>39</v>
@@ -2280,7 +2278,7 @@
         <v>118</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>39</v>
@@ -2289,7 +2287,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>14</v>
@@ -2306,10 +2304,10 @@
     </row>
     <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>39</v>
@@ -2318,7 +2316,7 @@
         <v>13</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>14</v>
@@ -2338,7 +2336,7 @@
         <v>121</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>39</v>
@@ -2367,7 +2365,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>39</v>
@@ -2376,7 +2374,7 @@
         <v>13</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>14</v>
@@ -2393,10 +2391,10 @@
     </row>
     <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>39</v>
@@ -2405,7 +2403,7 @@
         <v>13</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>14</v>
@@ -2420,35 +2418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2459,7 +2429,7 @@
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
